--- a/study-easyexcel/src/main/resources/excel/Simple.xlsx
+++ b/study-easyexcel/src/main/resources/excel/Simple.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1272" yWindow="-120" windowWidth="27648" windowHeight="16440"/>
+    <workbookView xWindow="1272" yWindow="-120" windowWidth="27648" windowHeight="16440" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,13 +25,25 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="5">
   <si>
     <t>用户名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>邮箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -367,8 +380,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -460,4 +473,65 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>123</v>
+      </c>
+      <c r="C2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>123</v>
+      </c>
+      <c r="C3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>123</v>
+      </c>
+      <c r="C4">
+        <v>123</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>